--- a/data/trans_bre/P42_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P42_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,12 +636,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-4,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,74</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,17 +651,17 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-10,83</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,84%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-64,37%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +671,17 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,12 +694,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-29,48; 24,81</t>
+          <t>-18,89; 2,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +709,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-42,11; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -702,6 +728,16 @@
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,67</t>
+          <t>6,64</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,02</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>83,57%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>47,25%</t>
+          <t>82,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-6,82%</t>
+          <t>58,86%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>105,57%</t>
+          <t>-5,2%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>110,5%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,40 +814,50 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 30,17</t>
+          <t>-5,46; 22,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 19,42</t>
+          <t>-6,81; 16,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 6,39</t>
+          <t>-7,59; 3,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 11,68</t>
+          <t>-3,49; 9,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,88; 408,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-62,23; 436,83</t>
+          <t>-53,71; 771,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,57; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,69</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,82</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,16</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-25,96%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>364,32%</t>
+          <t>-5,82%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>104,17%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,40 +934,50 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,31; 6,42</t>
+          <t>-9,77; 7,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 13,1</t>
+          <t>-3,07; 9,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 8,89</t>
+          <t>0,86; 7,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 10,01</t>
+          <t>0,95; 8,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-71,82; 69,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,99; —</t>
+          <t>-71,08; 224,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,26; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-7,87</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>-8,35</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,81%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-30,16%</t>
+          <t>-57,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-3,41%</t>
+          <t>-68,27%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>28,64%</t>
+          <t>-46,71%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-46,24%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,40 +1054,50 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 9,16</t>
+          <t>-17,44; 0,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 3,92</t>
+          <t>-17,48; -0,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 4,73</t>
+          <t>-7,2; 2,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 5,46</t>
+          <t>-6,87; 2,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-55,33; 114,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-73,76; 67,07</t>
+          <t>-85,89; 16,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-96,9; 476,61</t>
+          <t>-92,64; 3,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,31</t>
+          <t>6,22</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,8</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>191,53%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>114,77%</t>
+          <t>434,59%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1068,27 +1174,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 30,51</t>
+          <t>0,0; 17,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 16,51</t>
+          <t>-5,84; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,8</t>
+          <t>0,0; 10,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,3</t>
+          <t>0,0; 9,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-41,98; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1102,6 +1208,16 @@
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1120,12 +1236,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1140,20 +1256,30 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1206,6 +1332,16 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,04</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>49,84%</t>
+          <t>-4,06%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>89,64%</t>
+          <t>-10,68%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>67,21%</t>
+          <t>46,86%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>85,64%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 8,28</t>
+          <t>-3,96; 4,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 7,31</t>
+          <t>-3,38; 2,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 4,11</t>
+          <t>-1,07; 2,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 4,4</t>
+          <t>-0,68; 2,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-26,03; 76,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-22,83; 165,03</t>
+          <t>-43,86; 87,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-33,59; 501,52</t>
+          <t>-57,52; 115,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-57,87; 388,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-52,21; 741,65</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
